--- a/ULS_kailash/TestData/IjaraJSPaths.xlsx
+++ b/ULS_kailash/TestData/IjaraJSPaths.xlsx
@@ -2,16 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="CustomerAddressDetails" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="addressdetails_WebElements" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="iJarah_CommonElements" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="CustomerDebt" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="addressdetails_WebElements" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="iJarah_CommonElements" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="201">
   <si>
     <t xml:space="preserve">Ijara_LoginFieldName</t>
   </si>
@@ -265,6 +266,306 @@
     <t xml:space="preserve">rent_amount</t>
   </si>
   <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.RENT_AMT.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frequency_of_rent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Frequency of rent"]+ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address_line_1_special_character_validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-text-box[ng-reflect-title="SCR.ADD_LINE_1"]+div ion-badge').textContent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addressdetails_status_toggle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-radio-button[ng-reflect-name="recStatus"] ion-toggle')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addressdetails_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-radio-button[ng-reflect-name="recStatus"] ion-toggle').getAttribute('aria-checked')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbourhood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.DIST_NAME.TOOLTIP"]') </t>
+  </si>
+  <si>
+    <t xml:space="preserve">address_type_mandatory_verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.ADD_TYPE.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additonal_customer_info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.getElementById('seg3')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">residential_or_ocupency_status_drop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.RES_STATUS.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">communication_address_toggle_verify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-radio-button[ng-reflect-title="SCR.MAILINGADD"] ion-toggle')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location_category_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Location Category.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address_line1_mandatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.ADD_LINE_1.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address_line1_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.ADD_LINE_1.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address_line2_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.ADD_LINE_2.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.COUNTRY_CODE.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_id_mandatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.PROVINCE_ID.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_id_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbourhood_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.DIST_NAME.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="City.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zip_code_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.ZIPCODE.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selectRecord1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('button[ng-reflect-text="Entitle"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_Additionalinfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('button[ng-reflect-text="View"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search_Additionalinfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('button[ng-reflect-text="Search"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frequency_of_rent_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Frequency of rent"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frequency_of_rent_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-radio-button[ng-reflect-title="SCR.STATUS"] ion-item')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field_status_toggle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-radio-button[ng-reflect-title="SCR.STATUS"] ion-item&gt;ion-toggle')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back_button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-card-content button[ng-reflect-text="Go Back"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back_button_verify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-title[ng-reflect-color="dark"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ijarah_CustomerDebt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mailBox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('[name="mail-unread-outline"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mailInboxSearchBtn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('[ng-reflect-text="Search"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inboxSearchInput</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector("#pr_id_1 &gt; div.p-datatable-header.ng-star-inserted &gt; div &gt; span.p-input-icon-left.float-end.captionTemplatespan &gt; input")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inboxEntitleBtn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('[ng-reflect-text="Entitle"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customerFinancialsTab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.getElementById("seg4")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_Button_CFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ijarah_AddressDetailsFieldName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customer_personal_info_edit_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('button[ng-reflect-icon="pi pi-pencil"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.ADD_STATUS.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address_line1_arabic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Address Line 1 in Arabic.TOOLT"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.ADD_LINE_2.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address_line2_arabic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Address Line 2 In Arabic.TOOLT"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="City.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.PO_BOX.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">po_box_number_mandatory_verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.PO_BOX.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_MOBILE_NUMBER_"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Duration of Stay.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.LAT_ADD.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latitude_details_of_the_address_mandatory_verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.LAT_ADD.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.LONG_ADD.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude_details_of_the_address_mandatory_verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.LONG_ADD.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.LANDMARK.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">landmark_mandatory_verifcation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.LANDMARK.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">occupency_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('p-calendar input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Occupancy date"] span')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.LANDLORD_NAME.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.LANDLORD_MOB.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">landlord_mobile_number_mandatory_verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.LANDLORD_MOB.TOOLTIP"] span')</t>
+  </si>
+  <si>
     <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.RENT_AMT.TOOLTIP"]+ion-input&gt;input')</t>
   </si>
   <si>
@@ -274,216 +575,6 @@
     <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.RENT_AMT.TOOLTIP"] span')</t>
   </si>
   <si>
-    <t xml:space="preserve">frequency_of_rent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Frequency of rent"]+ion-select')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address_line_1_special_character_validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('digital-text-box[ng-reflect-title="SCR.ADD_LINE_1"]+div ion-badge').textContent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addressdetails_status_toggle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('digital-radio-button[ng-reflect-name="recStatus"] ion-toggle')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addressdetails_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('digital-radio-button[ng-reflect-name="recStatus"] ion-toggle').getAttribute('aria-checked')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neighbourhood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.DIST_NAME.TOOLTIP"]') </t>
-  </si>
-  <si>
-    <t xml:space="preserve">address_type_mandatory_verification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.ADD_TYPE.TOOLTIP"]')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">additonal_customer_info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.getElementById('seg3')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">residential_or_ocupency_status_drop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.RES_STATUS.TOOLTIP"]+ion-select')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">communication_address_toggle_verify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('digital-radio-button[ng-reflect-title="SCR.MAILINGADD"] ion-toggle')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location_category_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Location Category.TOOLTIP"]')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address_line1_mandatory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.ADD_LINE_1.TOOLTIP"]')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address_line1_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.ADD_LINE_1.TOOLTIP"]+ion-input')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address_line2_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.ADD_LINE_2.TOOLTIP"]+ion-input')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">country_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.COUNTRY_CODE.TOOLTIP"]+ion-select')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">province_id_mandatory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.PROVINCE_ID.TOOLTIP"]')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">province_id_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neighbourhood_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.DIST_NAME.TOOLTIP"]+ion-select')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="City.TOOLTIP"]+ion-input')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zip_code_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.ZIPCODE.TOOLTIP"]+ion-input')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ijarah_AddressDetailsFieldName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customer_personal_info_edit_icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('button[ng-reflect-icon="pi pi-pencil"]')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.ADD_STATUS.TOOLTIP"]+ion-select')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address_line1_arabic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Address Line 1 in Arabic.TOOLT"]+ion-input&gt;input')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.ADD_LINE_2.TOOLTIP"] span')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address_line2_arabic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Address Line 2 In Arabic.TOOLT"]+ion-input&gt;input')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="City.TOOLTIP"]+ion-select')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.PO_BOX.TOOLTIP"]+ion-input&gt;input')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">po_box_number_mandatory_verification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.PO_BOX.TOOLTIP"] span')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_MOBILE_NUMBER_"]+ion-input&gt;input')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Duration of Stay.TOOLTIP"]+ion-input&gt;input')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.LAT_ADD.TOOLTIP"]+ion-input&gt;input')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">latitude_details_of_the_address_mandatory_verification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.LAT_ADD.TOOLTIP"] span')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.LONG_ADD.TOOLTIP"]+ion-input&gt;input')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude_details_of_the_address_mandatory_verification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.LONG_ADD.TOOLTIP"] span')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.LANDMARK.TOOLTIP"]+ion-input&gt;input')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">landmark_mandatory_verifcation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.LANDMARK.TOOLTIP"] span')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">occupency_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('p-calendar input')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Occupancy date"] span')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.LANDLORD_NAME.TOOLTIP"]+ion-input&gt;input')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.LANDLORD_MOB.TOOLTIP"]+ion-input&gt;input')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">landlord_mobile_number_mandatory_verification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="SCR.LANDLORD_MOB.TOOLTIP"] span')</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ijarah_CommonFieldName</t>
   </si>
   <si>
@@ -502,15 +593,9 @@
     <t xml:space="preserve">mail_box</t>
   </si>
   <si>
-    <t xml:space="preserve">document.querySelector('[name="mail-unread-outline"]')</t>
-  </si>
-  <si>
     <t xml:space="preserve">mail_box_search_button</t>
   </si>
   <si>
-    <t xml:space="preserve">document.querySelector('button[ng-reflect-text="Search"]')</t>
-  </si>
-  <si>
     <t xml:space="preserve">mail_box_search_text</t>
   </si>
   <si>
@@ -530,9 +615,6 @@
   </si>
   <si>
     <t xml:space="preserve">back_button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('ion-card-content button[ng-reflect-text="Go Back"]')</t>
   </si>
   <si>
     <t xml:space="preserve">today_date</t>
@@ -553,8 +635,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$Rs.-4009]#,##0.00;[RED]\-[$Rs.-4009]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-4009]General"/>
+    <numFmt numFmtId="165" formatCode="[$$]#,##0.00;[RED]\-[$$]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$Rs.-4009]#,##0.00;[RED]\-[$Rs.-4009]#,##0.00"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -644,7 +726,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -668,59 +750,91 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="25" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Result2" xfId="20"/>
-    <cellStyle name="Excel Built-in Normal" xfId="21"/>
+  <cellStyles count="13">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Result" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Result2" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading1" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Result2 1" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Normal 1" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Normal" xfId="26" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -786,21 +900,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="144.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="2" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -869,8 +983,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -879,450 +993,515 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="43.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="51.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="2" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+    <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+    <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="2" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1331,391 +1510,467 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="67.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="110.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="2" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>124</v>
+      <c r="B5" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>98</v>
+      <c r="B6" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>126</v>
+      <c r="A11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>127</v>
+      <c r="B13" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>129</v>
+      <c r="A14" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>110</v>
+      <c r="A15" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>131</v>
+      <c r="B17" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>132</v>
+      <c r="B22" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>134</v>
+      <c r="A23" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>135</v>
+      <c r="B24" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>136</v>
+      <c r="B25" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>137</v>
+      <c r="B27" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>139</v>
+      <c r="A28" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>140</v>
+      <c r="B29" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>142</v>
+      <c r="A30" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>143</v>
+      <c r="B31" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>145</v>
+      <c r="A32" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>147</v>
+      <c r="A33" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>148</v>
+      <c r="B34" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>149</v>
+      <c r="B35" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>150</v>
+      <c r="B37" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>152</v>
+      <c r="A38" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>80</v>
+      <c r="B39" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+    <row r="42" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
+    <row r="43" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
+    <row r="44" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0"/>
-      <c r="B45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0"/>
-      <c r="B46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0"/>
-      <c r="B47" s="0"/>
-    </row>
+    <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1723,8 +1978,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1734,105 +1989,105 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="127.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="127.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="2" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>159</v>
+      <c r="A4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>161</v>
+      <c r="A5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>163</v>
+      <c r="A6" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>165</v>
+      <c r="A7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>167</v>
+      <c r="A8" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>169</v>
+      <c r="A9" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>171</v>
+      <c r="A10" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>173</v>
+      <c r="A11" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/ULS_kailash/TestData/IjaraJSPaths.xlsx
+++ b/ULS_kailash/TestData/IjaraJSPaths.xlsx
@@ -2,17 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="CustomerAddressDetails" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="CustomerDebt" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="addressdetails_WebElements" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="iJarah_CommonElements" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="AssetDetailElements" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="CustomerDebt" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="addressdetails_WebElements" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="iJarah_CommonElements" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="341">
   <si>
     <t xml:space="preserve">Ijara_LoginFieldName</t>
   </si>
@@ -431,6 +432,327 @@
     <t xml:space="preserve">document.querySelector('ion-title[ng-reflect-color="dark"]')</t>
   </si>
   <si>
+    <t xml:space="preserve">Ijarah_AssetDetailsFieldName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AssetDetailsVerification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Ijara Asset Details"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AssetDetailsTab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.getElementById('seg8')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActionButton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('button[icon="pi pi-eye"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DealerDetailsVerification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Dealer Details"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RegistrationDetailsVerification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Registration Details"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AssetPriceVerification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Asset Price and Down Payment D"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AssetManufacture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-select-layout[ng-reflect-name="manufacturerid"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AssetModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-select-layout[ng-reflect-name="modelcode"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AssetModelType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-select-layout[ng-reflect-name="assetModelType"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YearOfManufacture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-prime-date[ng-reflect-title="Year of Manufacture"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AssetCondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-select-layout[ng-reflect-name="assetCondition"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assetcolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-select-layout[ng-reflect-name="cgColor"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DriveTrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-select-layout[ng-reflect-name="drivetrain"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoOfCylinder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-text-box[ng-reflect-title="Number of Cylinder"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VolOfEngine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-text-box[ng-reflect-title="Volume Of Engine (CC)"') </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoOfUnits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-text-box[ng-reflect-title="No. of Units"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChasisNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-text-box[ng-reflect-title="Chasis Number"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlateNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-text-box[ng-reflect-title="Plate Number"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlateNumberArabic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-text-box[ng-reflect-title="Plate Number Arabic"]') </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AssetDealer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-select-layout[ng-reflect-name="dealerid"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DepositAccNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-text-box[ng-reflect-title="Deposit Acc No"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DealerEmailId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-text-box[ng-reflect-title="Dealer Email ID"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DealerContactNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-text-box[ng-reflect-title="Dealer Contact Number"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DealerLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-select-layout[ng-reflect-name="vendorLocation"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SalesPersonName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-text-box[ng-reflect-title="Dealer Sales Person Name"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AgentName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-select-layout[ng-reflect-name="agentid"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AgentEmailId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-text-box[ng-reflect-title="Agent Email ID"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AgentMobileNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-text-box[ng-reflect-title="Agent Mobile Number"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AssetPrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-text-box[ng-reflect-title="Asset Price"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DownPayment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-text-box[ng-reflect-title="Down Payment"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DownPaymentPerCentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-text-box[ng-reflect-title="Down Payment Percentage"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GreenIssueDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-prime-date[ng-reflect-title="Green Card Issue Date"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResidualValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-text-box[ng-reflect-title="Residual Value"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GreenCardNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-text-box[ng-reflect-title="Green Card No"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WeightInTons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-text-box[ng-reflect-title="Weight (in tons)"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AssetFulfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-select-layout[ng-reflect-name="assetFulfilLeBrId"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationOfSignin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-select-layout[ng-reflect-name="assetSignAgrmntLeBrId"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReceivedLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-select-layout[ng-reflect-name="assetReceivedLeBrId"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReMarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-text-box[ng-reflect-title="Remarks"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-radio-button[ng-reflect-title="SCR.STATUS"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AssetmanufactureDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Asset Manufacture.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AssetModelDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Asset Model.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AssetModelTypeDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Asset Model Type.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AssetConditionDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Asset condition.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AssetcolorDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Asset Color.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChasisNumberDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Chasis Number.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plateNumberDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Plate Number.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AssetDealerDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Asset Dealer.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AssetPriceDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Asset Price.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AssetFulfilDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Asset Agreed Fulfilment Locati"]+ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationOfSigninDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Location of Signing the Agreem"]+ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReceivedLocationDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Asset Received Location.TOOLTI"]+ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReMarksDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Remarks.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ijarah_CustomerDebt</t>
   </si>
   <si>
@@ -465,6 +787,105 @@
   </si>
   <si>
     <t xml:space="preserve">Action_Button_CFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accountNumberLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('[ng-reflect-text="Account Number"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closeDateLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('[ng-reflect-text="Closed Date.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DebtStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frequencyLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('[ng-reflect-text="Frequency.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">installmentAmtLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('[ng-reflect-text="Installment Amount"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lastPaymentDateLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('[ng-reflect-text="Last Payment Date.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nextDueDateLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('[ng-reflect-text="Next Due date.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last24CycleLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('[ng-reflect-text="Last 24 Cycle.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includeEligiblity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">digital-radio-button[ng-reflect-title="Include in Eligibility Calcula"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customerDebtBackBtn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CloseDate_Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="Closed Date.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StatusDisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frequencyDisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-select-layout[ng-reflect-name="repaymentFrequency"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lastPaymentDateDisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="Last Payment Date.TOOLTIP"] p-calendar')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nextDueDateDisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="Next Due date.TOOLTIP"] p-calendar')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last24CycleDisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Last 24 Cycle.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includeEligiblityDisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">digital-radio-button[ng-reflect-title="Include in Eligibility Calcula"] ion-toggle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">installmentAmtValidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Installment Amount"]+ion-input')</t>
   </si>
   <si>
     <t xml:space="preserve">Ijarah_AddressDetailsFieldName</t>
@@ -638,7 +1059,7 @@
     <numFmt numFmtId="165" formatCode="[$$]#,##0.00;[RED]\-[$$]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$Rs.-4009]#,##0.00;[RED]\-[$Rs.-4009]#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -689,6 +1110,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -726,7 +1165,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -750,14 +1189,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -771,48 +1203,52 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="25" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="23" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -820,21 +1256,34 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Result" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Result2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading1" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Result2 1" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Normal 1" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Normal" xfId="26" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="10">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Result2" xfId="20"/>
+    <cellStyle name="Result2 1" xfId="21"/>
+    <cellStyle name="Excel Built-in Normal 1" xfId="22"/>
+    <cellStyle name="Excel Built-in Normal" xfId="23"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -842,7 +1291,7 @@
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF2A00FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
@@ -855,7 +1304,7 @@
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF7F7F7F"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF6A3E3E"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -900,21 +1349,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="144.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="2" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="144.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="8.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -983,8 +1432,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -993,7 +1442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1003,11 +1452,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="43.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="51.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="2" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="43.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="51.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1501,7 +1949,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1510,30 +1958,1051 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:AMJ54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BY1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CA1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CC1" s="2"/>
+      <c r="CD1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CF1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CH1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="2"/>
+      <c r="CL1" s="2"/>
+      <c r="CM1" s="2"/>
+      <c r="CN1" s="2"/>
+      <c r="CO1" s="2"/>
+      <c r="CP1" s="2"/>
+      <c r="CQ1" s="2"/>
+      <c r="CR1" s="2"/>
+      <c r="CS1" s="2"/>
+      <c r="CT1" s="2"/>
+      <c r="CU1" s="2"/>
+      <c r="CV1" s="2"/>
+      <c r="CW1" s="2"/>
+      <c r="CX1" s="2"/>
+      <c r="CY1" s="2"/>
+      <c r="CZ1" s="2"/>
+      <c r="DA1" s="2"/>
+      <c r="DB1" s="2"/>
+      <c r="DC1" s="2"/>
+      <c r="DD1" s="2"/>
+      <c r="DE1" s="2"/>
+      <c r="DF1" s="2"/>
+      <c r="DG1" s="2"/>
+      <c r="DH1" s="2"/>
+      <c r="DI1" s="2"/>
+      <c r="DJ1" s="2"/>
+      <c r="DK1" s="2"/>
+      <c r="DL1" s="2"/>
+      <c r="DM1" s="2"/>
+      <c r="DN1" s="2"/>
+      <c r="DO1" s="2"/>
+      <c r="DP1" s="2"/>
+      <c r="DQ1" s="2"/>
+      <c r="DR1" s="2"/>
+      <c r="DS1" s="2"/>
+      <c r="DT1" s="2"/>
+      <c r="DU1" s="2"/>
+      <c r="DV1" s="2"/>
+      <c r="DW1" s="2"/>
+      <c r="DX1" s="2"/>
+      <c r="DY1" s="2"/>
+      <c r="DZ1" s="2"/>
+      <c r="EA1" s="2"/>
+      <c r="EB1" s="2"/>
+      <c r="EC1" s="2"/>
+      <c r="ED1" s="2"/>
+      <c r="EE1" s="2"/>
+      <c r="EF1" s="2"/>
+      <c r="EG1" s="2"/>
+      <c r="EH1" s="2"/>
+      <c r="EI1" s="2"/>
+      <c r="EJ1" s="2"/>
+      <c r="EK1" s="2"/>
+      <c r="EL1" s="2"/>
+      <c r="EM1" s="2"/>
+      <c r="EN1" s="2"/>
+      <c r="EO1" s="2"/>
+      <c r="EP1" s="2"/>
+      <c r="EQ1" s="2"/>
+      <c r="ER1" s="2"/>
+      <c r="ES1" s="2"/>
+      <c r="ET1" s="2"/>
+      <c r="EU1" s="2"/>
+      <c r="EV1" s="2"/>
+      <c r="EW1" s="2"/>
+      <c r="EX1" s="2"/>
+      <c r="EY1" s="2"/>
+      <c r="EZ1" s="2"/>
+      <c r="FA1" s="2"/>
+      <c r="FB1" s="2"/>
+      <c r="FC1" s="2"/>
+      <c r="FD1" s="2"/>
+      <c r="FE1" s="2"/>
+      <c r="FF1" s="2"/>
+      <c r="FG1" s="2"/>
+      <c r="FH1" s="2"/>
+      <c r="FI1" s="2"/>
+      <c r="FJ1" s="2"/>
+      <c r="FK1" s="2"/>
+      <c r="FL1" s="2"/>
+      <c r="FM1" s="2"/>
+      <c r="FN1" s="2"/>
+      <c r="FO1" s="2"/>
+      <c r="FP1" s="2"/>
+      <c r="FQ1" s="2"/>
+      <c r="FR1" s="2"/>
+      <c r="FS1" s="2"/>
+      <c r="FT1" s="2"/>
+      <c r="FU1" s="2"/>
+      <c r="FV1" s="2"/>
+      <c r="FW1" s="2"/>
+      <c r="FX1" s="2"/>
+      <c r="FY1" s="2"/>
+      <c r="FZ1" s="2"/>
+      <c r="GA1" s="2"/>
+      <c r="GB1" s="2"/>
+      <c r="GC1" s="2"/>
+      <c r="GD1" s="2"/>
+      <c r="GE1" s="2"/>
+      <c r="GF1" s="2"/>
+      <c r="GG1" s="2"/>
+      <c r="GH1" s="2"/>
+      <c r="GI1" s="2"/>
+      <c r="GJ1" s="2"/>
+      <c r="GK1" s="2"/>
+      <c r="GL1" s="2"/>
+      <c r="GM1" s="2"/>
+      <c r="GN1" s="2"/>
+      <c r="GO1" s="2"/>
+      <c r="GP1" s="2"/>
+      <c r="GQ1" s="2"/>
+      <c r="GR1" s="2"/>
+      <c r="GS1" s="2"/>
+      <c r="GT1" s="2"/>
+      <c r="GU1" s="2"/>
+      <c r="GV1" s="2"/>
+      <c r="GW1" s="2"/>
+      <c r="GX1" s="2"/>
+      <c r="GY1" s="2"/>
+      <c r="GZ1" s="2"/>
+      <c r="HA1" s="2"/>
+      <c r="HB1" s="2"/>
+      <c r="HC1" s="2"/>
+      <c r="HD1" s="2"/>
+      <c r="HE1" s="2"/>
+      <c r="HF1" s="2"/>
+      <c r="HG1" s="2"/>
+      <c r="HH1" s="2"/>
+      <c r="HI1" s="2"/>
+      <c r="HJ1" s="2"/>
+      <c r="HK1" s="2"/>
+      <c r="HL1" s="2"/>
+      <c r="HM1" s="2"/>
+      <c r="HN1" s="2"/>
+      <c r="HO1" s="2"/>
+      <c r="HP1" s="2"/>
+      <c r="HQ1" s="2"/>
+      <c r="HR1" s="2"/>
+      <c r="HS1" s="2"/>
+      <c r="HT1" s="2"/>
+      <c r="HU1" s="2"/>
+      <c r="HV1" s="2"/>
+      <c r="HW1" s="2"/>
+      <c r="HX1" s="2"/>
+      <c r="HY1" s="2"/>
+      <c r="HZ1" s="2"/>
+      <c r="IA1" s="2"/>
+      <c r="IB1" s="2"/>
+      <c r="IC1" s="2"/>
+      <c r="ID1" s="2"/>
+      <c r="IE1" s="2"/>
+      <c r="IF1" s="2"/>
+      <c r="IG1" s="2"/>
+      <c r="IH1" s="2"/>
+      <c r="II1" s="2"/>
+      <c r="IJ1" s="2"/>
+      <c r="IK1" s="2"/>
+      <c r="IL1" s="2"/>
+      <c r="IM1" s="2"/>
+      <c r="IN1" s="2"/>
+      <c r="IO1" s="2"/>
+      <c r="IP1" s="2"/>
+      <c r="IQ1" s="2"/>
+      <c r="IR1" s="2"/>
+      <c r="IS1" s="2"/>
+      <c r="IT1" s="2"/>
+      <c r="IU1" s="2"/>
+      <c r="IV1" s="2"/>
+      <c r="IW1" s="2"/>
+      <c r="IX1" s="2"/>
+      <c r="IY1" s="2"/>
+      <c r="IZ1" s="2"/>
+      <c r="JA1" s="2"/>
+      <c r="JB1" s="2"/>
+      <c r="JC1" s="2"/>
+      <c r="JD1" s="2"/>
+      <c r="JE1" s="2"/>
+      <c r="JF1" s="2"/>
+      <c r="JG1" s="2"/>
+      <c r="JH1" s="2"/>
+      <c r="JI1" s="2"/>
+      <c r="JJ1" s="2"/>
+      <c r="JK1" s="2"/>
+      <c r="JL1" s="2"/>
+      <c r="JM1" s="2"/>
+      <c r="JN1" s="2"/>
+      <c r="JO1" s="2"/>
+      <c r="JP1" s="2"/>
+      <c r="JQ1" s="2"/>
+      <c r="JR1" s="2"/>
+      <c r="JS1" s="2"/>
+      <c r="JT1" s="2"/>
+      <c r="JU1" s="2"/>
+      <c r="JV1" s="2"/>
+      <c r="JW1" s="2"/>
+      <c r="JX1" s="2"/>
+      <c r="JY1" s="2"/>
+      <c r="JZ1" s="2"/>
+      <c r="KA1" s="2"/>
+      <c r="KB1" s="2"/>
+      <c r="KC1" s="2"/>
+      <c r="KD1" s="2"/>
+      <c r="KE1" s="2"/>
+      <c r="KF1" s="2"/>
+      <c r="KG1" s="2"/>
+      <c r="KH1" s="2"/>
+      <c r="KI1" s="2"/>
+      <c r="KJ1" s="2"/>
+      <c r="KK1" s="2"/>
+      <c r="KL1" s="2"/>
+      <c r="KM1" s="2"/>
+      <c r="KN1" s="2"/>
+      <c r="KO1" s="2"/>
+      <c r="KP1" s="2"/>
+      <c r="KQ1" s="2"/>
+      <c r="KR1" s="2"/>
+      <c r="KS1" s="2"/>
+      <c r="KT1" s="2"/>
+      <c r="KU1" s="2"/>
+      <c r="KV1" s="2"/>
+      <c r="KW1" s="2"/>
+      <c r="KX1" s="2"/>
+      <c r="KY1" s="2"/>
+      <c r="KZ1" s="2"/>
+      <c r="LA1" s="2"/>
+      <c r="LB1" s="2"/>
+      <c r="LC1" s="2"/>
+      <c r="LD1" s="2"/>
+      <c r="LE1" s="2"/>
+      <c r="LF1" s="2"/>
+      <c r="LG1" s="2"/>
+      <c r="LH1" s="2"/>
+      <c r="LI1" s="2"/>
+      <c r="LJ1" s="2"/>
+      <c r="LK1" s="2"/>
+      <c r="LL1" s="2"/>
+      <c r="LM1" s="2"/>
+      <c r="LN1" s="2"/>
+      <c r="LO1" s="2"/>
+      <c r="LP1" s="2"/>
+      <c r="LQ1" s="2"/>
+      <c r="LR1" s="2"/>
+      <c r="LS1" s="2"/>
+      <c r="LT1" s="2"/>
+      <c r="LU1" s="2"/>
+      <c r="LV1" s="2"/>
+      <c r="LW1" s="2"/>
+      <c r="LX1" s="2"/>
+      <c r="LY1" s="2"/>
+      <c r="LZ1" s="2"/>
+      <c r="MA1" s="2"/>
+      <c r="MB1" s="2"/>
+      <c r="MC1" s="2"/>
+      <c r="MD1" s="2"/>
+      <c r="ME1" s="2"/>
+      <c r="MF1" s="2"/>
+      <c r="MG1" s="2"/>
+      <c r="MH1" s="2"/>
+      <c r="MI1" s="2"/>
+      <c r="MJ1" s="2"/>
+      <c r="MK1" s="2"/>
+      <c r="ML1" s="2"/>
+      <c r="MM1" s="2"/>
+      <c r="MN1" s="2"/>
+      <c r="MO1" s="2"/>
+      <c r="MP1" s="2"/>
+      <c r="MQ1" s="2"/>
+      <c r="MR1" s="2"/>
+      <c r="MS1" s="2"/>
+      <c r="MT1" s="2"/>
+      <c r="MU1" s="2"/>
+      <c r="MV1" s="2"/>
+      <c r="MW1" s="2"/>
+      <c r="MX1" s="2"/>
+      <c r="MY1" s="2"/>
+      <c r="MZ1" s="2"/>
+      <c r="NA1" s="2"/>
+      <c r="NB1" s="2"/>
+      <c r="NC1" s="2"/>
+      <c r="ND1" s="2"/>
+      <c r="NE1" s="2"/>
+      <c r="NF1" s="2"/>
+      <c r="NG1" s="2"/>
+      <c r="NH1" s="2"/>
+      <c r="NI1" s="2"/>
+      <c r="NJ1" s="2"/>
+      <c r="NK1" s="2"/>
+      <c r="NL1" s="2"/>
+      <c r="NM1" s="2"/>
+      <c r="NN1" s="2"/>
+      <c r="NO1" s="2"/>
+      <c r="NP1" s="2"/>
+      <c r="NQ1" s="2"/>
+      <c r="NR1" s="2"/>
+      <c r="NS1" s="2"/>
+      <c r="NT1" s="2"/>
+      <c r="NU1" s="2"/>
+      <c r="NV1" s="2"/>
+      <c r="NW1" s="2"/>
+      <c r="NX1" s="2"/>
+      <c r="NY1" s="2"/>
+      <c r="NZ1" s="2"/>
+      <c r="OA1" s="2"/>
+      <c r="OB1" s="2"/>
+      <c r="OC1" s="2"/>
+      <c r="OD1" s="2"/>
+      <c r="OE1" s="2"/>
+      <c r="OF1" s="2"/>
+      <c r="OG1" s="2"/>
+      <c r="OH1" s="2"/>
+      <c r="OI1" s="2"/>
+      <c r="OJ1" s="2"/>
+      <c r="OK1" s="2"/>
+      <c r="OL1" s="2"/>
+      <c r="OM1" s="2"/>
+      <c r="ON1" s="2"/>
+      <c r="OO1" s="2"/>
+      <c r="OP1" s="2"/>
+      <c r="OQ1" s="2"/>
+      <c r="OR1" s="2"/>
+      <c r="OS1" s="2"/>
+      <c r="OT1" s="2"/>
+      <c r="OU1" s="2"/>
+      <c r="OV1" s="2"/>
+      <c r="OW1" s="2"/>
+      <c r="OX1" s="2"/>
+      <c r="OY1" s="2"/>
+      <c r="OZ1" s="2"/>
+      <c r="PA1" s="2"/>
+      <c r="PB1" s="2"/>
+      <c r="PC1" s="2"/>
+      <c r="PD1" s="2"/>
+      <c r="PE1" s="2"/>
+      <c r="PF1" s="2"/>
+      <c r="PG1" s="2"/>
+      <c r="PH1" s="2"/>
+      <c r="PI1" s="2"/>
+      <c r="PJ1" s="2"/>
+      <c r="PK1" s="2"/>
+      <c r="PL1" s="2"/>
+      <c r="PM1" s="2"/>
+      <c r="PN1" s="2"/>
+      <c r="PO1" s="2"/>
+      <c r="PP1" s="2"/>
+      <c r="PQ1" s="2"/>
+      <c r="PR1" s="2"/>
+      <c r="PS1" s="2"/>
+      <c r="PT1" s="2"/>
+      <c r="PU1" s="2"/>
+      <c r="PV1" s="2"/>
+      <c r="PW1" s="2"/>
+      <c r="PX1" s="2"/>
+      <c r="PY1" s="2"/>
+      <c r="PZ1" s="2"/>
+      <c r="QA1" s="2"/>
+      <c r="QB1" s="2"/>
+      <c r="QC1" s="2"/>
+      <c r="QD1" s="2"/>
+      <c r="QE1" s="2"/>
+      <c r="QF1" s="2"/>
+      <c r="QG1" s="2"/>
+      <c r="QH1" s="2"/>
+      <c r="QI1" s="2"/>
+      <c r="QJ1" s="2"/>
+      <c r="QK1" s="2"/>
+      <c r="QL1" s="2"/>
+      <c r="QM1" s="2"/>
+      <c r="QN1" s="2"/>
+      <c r="QO1" s="2"/>
+      <c r="QP1" s="2"/>
+      <c r="QQ1" s="2"/>
+      <c r="QR1" s="2"/>
+      <c r="QS1" s="2"/>
+      <c r="QT1" s="2"/>
+      <c r="QU1" s="2"/>
+      <c r="QV1" s="2"/>
+      <c r="QW1" s="2"/>
+      <c r="QX1" s="2"/>
+      <c r="QY1" s="2"/>
+      <c r="QZ1" s="2"/>
+      <c r="RA1" s="2"/>
+      <c r="RB1" s="2"/>
+      <c r="RC1" s="2"/>
+      <c r="RD1" s="2"/>
+      <c r="RE1" s="2"/>
+      <c r="RF1" s="2"/>
+      <c r="RG1" s="2"/>
+      <c r="RH1" s="2"/>
+      <c r="RI1" s="2"/>
+      <c r="RJ1" s="2"/>
+      <c r="RK1" s="2"/>
+      <c r="RL1" s="2"/>
+      <c r="RM1" s="2"/>
+      <c r="RN1" s="2"/>
+      <c r="RO1" s="2"/>
+      <c r="RP1" s="2"/>
+      <c r="RQ1" s="2"/>
+      <c r="RR1" s="2"/>
+      <c r="RS1" s="2"/>
+      <c r="RT1" s="2"/>
+      <c r="RU1" s="2"/>
+      <c r="RV1" s="2"/>
+      <c r="RW1" s="2"/>
+      <c r="RX1" s="2"/>
+      <c r="RY1" s="2"/>
+      <c r="RZ1" s="2"/>
+      <c r="SA1" s="2"/>
+      <c r="SB1" s="2"/>
+      <c r="SC1" s="2"/>
+      <c r="SD1" s="2"/>
+      <c r="SE1" s="2"/>
+      <c r="SF1" s="2"/>
+      <c r="SG1" s="2"/>
+      <c r="SH1" s="2"/>
+      <c r="SI1" s="2"/>
+      <c r="SJ1" s="2"/>
+      <c r="SK1" s="2"/>
+      <c r="SL1" s="2"/>
+      <c r="SM1" s="2"/>
+      <c r="SN1" s="2"/>
+      <c r="SO1" s="2"/>
+      <c r="SP1" s="2"/>
+      <c r="SQ1" s="2"/>
+      <c r="SR1" s="2"/>
+      <c r="SS1" s="2"/>
+      <c r="ST1" s="2"/>
+      <c r="SU1" s="2"/>
+      <c r="SV1" s="2"/>
+      <c r="SW1" s="2"/>
+      <c r="SX1" s="2"/>
+      <c r="SY1" s="2"/>
+      <c r="SZ1" s="2"/>
+      <c r="TA1" s="2"/>
+      <c r="TB1" s="2"/>
+      <c r="TC1" s="2"/>
+      <c r="TD1" s="2"/>
+      <c r="TE1" s="2"/>
+      <c r="TF1" s="2"/>
+      <c r="TG1" s="2"/>
+      <c r="TH1" s="2"/>
+      <c r="TI1" s="2"/>
+      <c r="TJ1" s="2"/>
+      <c r="TK1" s="2"/>
+      <c r="TL1" s="2"/>
+      <c r="TM1" s="2"/>
+      <c r="TN1" s="2"/>
+      <c r="TO1" s="2"/>
+      <c r="TP1" s="2"/>
+      <c r="TQ1" s="2"/>
+      <c r="TR1" s="2"/>
+      <c r="TS1" s="2"/>
+      <c r="TT1" s="2"/>
+      <c r="TU1" s="2"/>
+      <c r="TV1" s="2"/>
+      <c r="TW1" s="2"/>
+      <c r="TX1" s="2"/>
+      <c r="TY1" s="2"/>
+      <c r="TZ1" s="2"/>
+      <c r="UA1" s="2"/>
+      <c r="UB1" s="2"/>
+      <c r="UC1" s="2"/>
+      <c r="UD1" s="2"/>
+      <c r="UE1" s="2"/>
+      <c r="UF1" s="2"/>
+      <c r="UG1" s="2"/>
+      <c r="UH1" s="2"/>
+      <c r="UI1" s="2"/>
+      <c r="UJ1" s="2"/>
+      <c r="UK1" s="2"/>
+      <c r="UL1" s="2"/>
+      <c r="UM1" s="2"/>
+      <c r="UN1" s="2"/>
+      <c r="UO1" s="2"/>
+      <c r="UP1" s="2"/>
+      <c r="UQ1" s="2"/>
+      <c r="UR1" s="2"/>
+      <c r="US1" s="2"/>
+      <c r="UT1" s="2"/>
+      <c r="UU1" s="2"/>
+      <c r="UV1" s="2"/>
+      <c r="UW1" s="2"/>
+      <c r="UX1" s="2"/>
+      <c r="UY1" s="2"/>
+      <c r="UZ1" s="2"/>
+      <c r="VA1" s="2"/>
+      <c r="VB1" s="2"/>
+      <c r="VC1" s="2"/>
+      <c r="VD1" s="2"/>
+      <c r="VE1" s="2"/>
+      <c r="VF1" s="2"/>
+      <c r="VG1" s="2"/>
+      <c r="VH1" s="2"/>
+      <c r="VI1" s="2"/>
+      <c r="VJ1" s="2"/>
+      <c r="VK1" s="2"/>
+      <c r="VL1" s="2"/>
+      <c r="VM1" s="2"/>
+      <c r="VN1" s="2"/>
+      <c r="VO1" s="2"/>
+      <c r="VP1" s="2"/>
+      <c r="VQ1" s="2"/>
+      <c r="VR1" s="2"/>
+      <c r="VS1" s="2"/>
+      <c r="VT1" s="2"/>
+      <c r="VU1" s="2"/>
+      <c r="VV1" s="2"/>
+      <c r="VW1" s="2"/>
+      <c r="VX1" s="2"/>
+      <c r="VY1" s="2"/>
+      <c r="VZ1" s="2"/>
+      <c r="WA1" s="2"/>
+      <c r="WB1" s="2"/>
+      <c r="WC1" s="2"/>
+      <c r="WD1" s="2"/>
+      <c r="WE1" s="2"/>
+      <c r="WF1" s="2"/>
+      <c r="WG1" s="2"/>
+      <c r="WH1" s="2"/>
+      <c r="WI1" s="2"/>
+      <c r="WJ1" s="2"/>
+      <c r="WK1" s="2"/>
+      <c r="WL1" s="2"/>
+      <c r="WM1" s="2"/>
+      <c r="WN1" s="2"/>
+      <c r="WO1" s="2"/>
+      <c r="WP1" s="2"/>
+      <c r="WQ1" s="2"/>
+      <c r="WR1" s="2"/>
+      <c r="WS1" s="2"/>
+      <c r="WT1" s="2"/>
+      <c r="WU1" s="2"/>
+      <c r="WV1" s="2"/>
+      <c r="WW1" s="2"/>
+      <c r="WX1" s="2"/>
+      <c r="WY1" s="2"/>
+      <c r="WZ1" s="2"/>
+      <c r="XA1" s="2"/>
+      <c r="XB1" s="2"/>
+      <c r="XC1" s="2"/>
+      <c r="XD1" s="2"/>
+      <c r="XE1" s="2"/>
+      <c r="XF1" s="2"/>
+      <c r="XG1" s="2"/>
+      <c r="XH1" s="2"/>
+      <c r="XI1" s="2"/>
+      <c r="XJ1" s="2"/>
+      <c r="XK1" s="2"/>
+      <c r="XL1" s="2"/>
+      <c r="XM1" s="2"/>
+      <c r="XN1" s="2"/>
+      <c r="XO1" s="2"/>
+      <c r="XP1" s="2"/>
+      <c r="XQ1" s="2"/>
+      <c r="XR1" s="2"/>
+      <c r="XS1" s="2"/>
+      <c r="XT1" s="2"/>
+      <c r="XU1" s="2"/>
+      <c r="XV1" s="2"/>
+      <c r="XW1" s="2"/>
+      <c r="XX1" s="2"/>
+      <c r="XY1" s="2"/>
+      <c r="XZ1" s="2"/>
+      <c r="YA1" s="2"/>
+      <c r="YB1" s="2"/>
+      <c r="YC1" s="2"/>
+      <c r="YD1" s="2"/>
+      <c r="YE1" s="2"/>
+      <c r="YF1" s="2"/>
+      <c r="YG1" s="2"/>
+      <c r="YH1" s="2"/>
+      <c r="YI1" s="2"/>
+      <c r="YJ1" s="2"/>
+      <c r="YK1" s="2"/>
+      <c r="YL1" s="2"/>
+      <c r="YM1" s="2"/>
+      <c r="YN1" s="2"/>
+      <c r="YO1" s="2"/>
+      <c r="YP1" s="2"/>
+      <c r="YQ1" s="2"/>
+      <c r="YR1" s="2"/>
+      <c r="YS1" s="2"/>
+      <c r="YT1" s="2"/>
+      <c r="YU1" s="2"/>
+      <c r="YV1" s="2"/>
+      <c r="YW1" s="2"/>
+      <c r="YX1" s="2"/>
+      <c r="YY1" s="2"/>
+      <c r="YZ1" s="2"/>
+      <c r="ZA1" s="2"/>
+      <c r="ZB1" s="2"/>
+      <c r="ZC1" s="2"/>
+      <c r="ZD1" s="2"/>
+      <c r="ZE1" s="2"/>
+      <c r="ZF1" s="2"/>
+      <c r="ZG1" s="2"/>
+      <c r="ZH1" s="2"/>
+      <c r="ZI1" s="2"/>
+      <c r="ZJ1" s="2"/>
+      <c r="ZK1" s="2"/>
+      <c r="ZL1" s="2"/>
+      <c r="ZM1" s="2"/>
+      <c r="ZN1" s="2"/>
+      <c r="ZO1" s="2"/>
+      <c r="ZP1" s="2"/>
+      <c r="ZQ1" s="2"/>
+      <c r="ZR1" s="2"/>
+      <c r="ZS1" s="2"/>
+      <c r="ZT1" s="2"/>
+      <c r="ZU1" s="2"/>
+      <c r="ZV1" s="2"/>
+      <c r="ZW1" s="2"/>
+      <c r="ZX1" s="2"/>
+      <c r="ZY1" s="2"/>
+      <c r="ZZ1" s="2"/>
+      <c r="AAA1" s="2"/>
+      <c r="AAB1" s="2"/>
+      <c r="AAC1" s="2"/>
+      <c r="AAD1" s="2"/>
+      <c r="AAE1" s="2"/>
+      <c r="AAF1" s="2"/>
+      <c r="AAG1" s="2"/>
+      <c r="AAH1" s="2"/>
+      <c r="AAI1" s="2"/>
+      <c r="AAJ1" s="2"/>
+      <c r="AAK1" s="2"/>
+      <c r="AAL1" s="2"/>
+      <c r="AAM1" s="2"/>
+      <c r="AAN1" s="2"/>
+      <c r="AAO1" s="2"/>
+      <c r="AAP1" s="2"/>
+      <c r="AAQ1" s="2"/>
+      <c r="AAR1" s="2"/>
+      <c r="AAS1" s="2"/>
+      <c r="AAT1" s="2"/>
+      <c r="AAU1" s="2"/>
+      <c r="AAV1" s="2"/>
+      <c r="AAW1" s="2"/>
+      <c r="AAX1" s="2"/>
+      <c r="AAY1" s="2"/>
+      <c r="AAZ1" s="2"/>
+      <c r="ABA1" s="2"/>
+      <c r="ABB1" s="2"/>
+      <c r="ABC1" s="2"/>
+      <c r="ABD1" s="2"/>
+      <c r="ABE1" s="2"/>
+      <c r="ABF1" s="2"/>
+      <c r="ABG1" s="2"/>
+      <c r="ABH1" s="2"/>
+      <c r="ABI1" s="2"/>
+      <c r="ABJ1" s="2"/>
+      <c r="ABK1" s="2"/>
+      <c r="ABL1" s="2"/>
+      <c r="ABM1" s="2"/>
+      <c r="ABN1" s="2"/>
+      <c r="ABO1" s="2"/>
+      <c r="ABP1" s="2"/>
+      <c r="ABQ1" s="2"/>
+      <c r="ABR1" s="2"/>
+      <c r="ABS1" s="2"/>
+      <c r="ABT1" s="2"/>
+      <c r="ABU1" s="2"/>
+      <c r="ABV1" s="2"/>
+      <c r="ABW1" s="2"/>
+      <c r="ABX1" s="2"/>
+      <c r="ABY1" s="2"/>
+      <c r="ABZ1" s="2"/>
+      <c r="ACA1" s="2"/>
+      <c r="ACB1" s="2"/>
+      <c r="ACC1" s="2"/>
+      <c r="ACD1" s="2"/>
+      <c r="ACE1" s="2"/>
+      <c r="ACF1" s="2"/>
+      <c r="ACG1" s="2"/>
+      <c r="ACH1" s="2"/>
+      <c r="ACI1" s="2"/>
+      <c r="ACJ1" s="2"/>
+      <c r="ACK1" s="2"/>
+      <c r="ACL1" s="2"/>
+      <c r="ACM1" s="2"/>
+      <c r="ACN1" s="2"/>
+      <c r="ACO1" s="2"/>
+      <c r="ACP1" s="2"/>
+      <c r="ACQ1" s="2"/>
+      <c r="ACR1" s="2"/>
+      <c r="ACS1" s="2"/>
+      <c r="ACT1" s="2"/>
+      <c r="ACU1" s="2"/>
+      <c r="ACV1" s="2"/>
+      <c r="ACW1" s="2"/>
+      <c r="ACX1" s="2"/>
+      <c r="ACY1" s="2"/>
+      <c r="ACZ1" s="2"/>
+      <c r="ADA1" s="2"/>
+      <c r="ADB1" s="2"/>
+      <c r="ADC1" s="2"/>
+      <c r="ADD1" s="2"/>
+      <c r="ADE1" s="2"/>
+      <c r="ADF1" s="2"/>
+      <c r="ADG1" s="2"/>
+      <c r="ADH1" s="2"/>
+      <c r="ADI1" s="2"/>
+      <c r="ADJ1" s="2"/>
+      <c r="ADK1" s="2"/>
+      <c r="ADL1" s="2"/>
+      <c r="ADM1" s="2"/>
+      <c r="ADN1" s="2"/>
+      <c r="ADO1" s="2"/>
+      <c r="ADP1" s="2"/>
+      <c r="ADQ1" s="2"/>
+      <c r="ADR1" s="2"/>
+      <c r="ADS1" s="2"/>
+      <c r="ADT1" s="2"/>
+      <c r="ADU1" s="2"/>
+      <c r="ADV1" s="2"/>
+      <c r="ADW1" s="2"/>
+      <c r="ADX1" s="2"/>
+      <c r="ADY1" s="2"/>
+      <c r="ADZ1" s="2"/>
+      <c r="AEA1" s="2"/>
+      <c r="AEB1" s="2"/>
+      <c r="AEC1" s="2"/>
+      <c r="AED1" s="2"/>
+      <c r="AEE1" s="2"/>
+      <c r="AEF1" s="2"/>
+      <c r="AEG1" s="2"/>
+      <c r="AEH1" s="2"/>
+      <c r="AEI1" s="2"/>
+      <c r="AEJ1" s="2"/>
+      <c r="AEK1" s="2"/>
+      <c r="AEL1" s="2"/>
+      <c r="AEM1" s="2"/>
+      <c r="AEN1" s="2"/>
+      <c r="AEO1" s="2"/>
+      <c r="AEP1" s="2"/>
+      <c r="AEQ1" s="2"/>
+      <c r="AER1" s="2"/>
+      <c r="AES1" s="2"/>
+      <c r="AET1" s="2"/>
+      <c r="AEU1" s="2"/>
+      <c r="AEV1" s="2"/>
+      <c r="AEW1" s="2"/>
+      <c r="AEX1" s="2"/>
+      <c r="AEY1" s="2"/>
+      <c r="AEZ1" s="2"/>
+      <c r="AFA1" s="2"/>
+      <c r="AFB1" s="2"/>
+      <c r="AFC1" s="2"/>
+      <c r="AFD1" s="2"/>
+      <c r="AFE1" s="2"/>
+      <c r="AFF1" s="2"/>
+      <c r="AFG1" s="2"/>
+      <c r="AFH1" s="2"/>
+      <c r="AFI1" s="2"/>
+      <c r="AFJ1" s="2"/>
+      <c r="AFK1" s="2"/>
+      <c r="AFL1" s="2"/>
+      <c r="AFM1" s="2"/>
+      <c r="AFN1" s="2"/>
+      <c r="AFO1" s="2"/>
+      <c r="AFP1" s="2"/>
+      <c r="AFQ1" s="2"/>
+      <c r="AFR1" s="2"/>
+      <c r="AFS1" s="2"/>
+      <c r="AFT1" s="2"/>
+      <c r="AFU1" s="2"/>
+      <c r="AFV1" s="2"/>
+      <c r="AFW1" s="2"/>
+      <c r="AFX1" s="2"/>
+      <c r="AFY1" s="2"/>
+      <c r="AFZ1" s="2"/>
+      <c r="AGA1" s="2"/>
+      <c r="AGB1" s="2"/>
+      <c r="AGC1" s="2"/>
+      <c r="AGD1" s="2"/>
+      <c r="AGE1" s="2"/>
+      <c r="AGF1" s="2"/>
+      <c r="AGG1" s="2"/>
+      <c r="AGH1" s="2"/>
+      <c r="AGI1" s="2"/>
+      <c r="AGJ1" s="2"/>
+      <c r="AGK1" s="2"/>
+      <c r="AGL1" s="2"/>
+      <c r="AGM1" s="2"/>
+      <c r="AGN1" s="2"/>
+      <c r="AGO1" s="2"/>
+      <c r="AGP1" s="2"/>
+      <c r="AGQ1" s="2"/>
+      <c r="AGR1" s="2"/>
+      <c r="AGS1" s="2"/>
+      <c r="AGT1" s="2"/>
+      <c r="AGU1" s="2"/>
+      <c r="AGV1" s="2"/>
+      <c r="AGW1" s="2"/>
+      <c r="AGX1" s="2"/>
+      <c r="AGY1" s="2"/>
+      <c r="AGZ1" s="2"/>
+      <c r="AHA1" s="2"/>
+      <c r="AHB1" s="2"/>
+      <c r="AHC1" s="2"/>
+      <c r="AHD1" s="2"/>
+      <c r="AHE1" s="2"/>
+      <c r="AHF1" s="2"/>
+      <c r="AHG1" s="2"/>
+      <c r="AHH1" s="2"/>
+      <c r="AHI1" s="2"/>
+      <c r="AHJ1" s="2"/>
+      <c r="AHK1" s="2"/>
+      <c r="AHL1" s="2"/>
+      <c r="AHM1" s="2"/>
+      <c r="AHN1" s="2"/>
+      <c r="AHO1" s="2"/>
+      <c r="AHP1" s="2"/>
+      <c r="AHQ1" s="2"/>
+      <c r="AHR1" s="2"/>
+      <c r="AHS1" s="2"/>
+      <c r="AHT1" s="2"/>
+      <c r="AHU1" s="2"/>
+      <c r="AHV1" s="2"/>
+      <c r="AHW1" s="2"/>
+      <c r="AHX1" s="2"/>
+      <c r="AHY1" s="2"/>
+      <c r="AHZ1" s="2"/>
+      <c r="AIA1" s="2"/>
+      <c r="AIB1" s="2"/>
+      <c r="AIC1" s="2"/>
+      <c r="AID1" s="2"/>
+      <c r="AIE1" s="2"/>
+      <c r="AIF1" s="2"/>
+      <c r="AIG1" s="2"/>
+      <c r="AIH1" s="2"/>
+      <c r="AII1" s="2"/>
+      <c r="AIJ1" s="2"/>
+      <c r="AIK1" s="2"/>
+      <c r="AIL1" s="2"/>
+      <c r="AIM1" s="2"/>
+      <c r="AIN1" s="2"/>
+      <c r="AIO1" s="2"/>
+      <c r="AIP1" s="2"/>
+      <c r="AIQ1" s="2"/>
+      <c r="AIR1" s="2"/>
+      <c r="AIS1" s="2"/>
+      <c r="AIT1" s="2"/>
+      <c r="AIU1" s="2"/>
+      <c r="AIV1" s="2"/>
+      <c r="AIW1" s="2"/>
+      <c r="AIX1" s="2"/>
+      <c r="AIY1" s="2"/>
+      <c r="AIZ1" s="2"/>
+      <c r="AJA1" s="2"/>
+      <c r="AJB1" s="2"/>
+      <c r="AJC1" s="2"/>
+      <c r="AJD1" s="2"/>
+      <c r="AJE1" s="2"/>
+      <c r="AJF1" s="2"/>
+      <c r="AJG1" s="2"/>
+      <c r="AJH1" s="2"/>
+      <c r="AJI1" s="2"/>
+      <c r="AJJ1" s="2"/>
+      <c r="AJK1" s="2"/>
+      <c r="AJL1" s="2"/>
+      <c r="AJM1" s="2"/>
+      <c r="AJN1" s="2"/>
+      <c r="AJO1" s="2"/>
+      <c r="AJP1" s="2"/>
+      <c r="AJQ1" s="2"/>
+      <c r="AJR1" s="2"/>
+      <c r="AJS1" s="2"/>
+      <c r="AJT1" s="2"/>
+      <c r="AJU1" s="2"/>
+      <c r="AJV1" s="2"/>
+      <c r="AJW1" s="2"/>
+      <c r="AJX1" s="2"/>
+      <c r="AJY1" s="2"/>
+      <c r="AJZ1" s="2"/>
+      <c r="AKA1" s="2"/>
+      <c r="AKB1" s="2"/>
+      <c r="AKC1" s="2"/>
+      <c r="AKD1" s="2"/>
+      <c r="AKE1" s="2"/>
+      <c r="AKF1" s="2"/>
+      <c r="AKG1" s="2"/>
+      <c r="AKH1" s="2"/>
+      <c r="AKI1" s="2"/>
+      <c r="AKJ1" s="2"/>
+      <c r="AKK1" s="2"/>
+      <c r="AKL1" s="2"/>
+      <c r="AKM1" s="2"/>
+      <c r="AKN1" s="2"/>
+      <c r="AKO1" s="2"/>
+      <c r="AKP1" s="2"/>
+      <c r="AKQ1" s="2"/>
+      <c r="AKR1" s="2"/>
+      <c r="AKS1" s="2"/>
+      <c r="AKT1" s="2"/>
+      <c r="AKU1" s="2"/>
+      <c r="AKV1" s="2"/>
+      <c r="AKW1" s="2"/>
+      <c r="AKX1" s="2"/>
+      <c r="AKY1" s="2"/>
+      <c r="AKZ1" s="2"/>
+      <c r="ALA1" s="2"/>
+      <c r="ALB1" s="2"/>
+      <c r="ALC1" s="2"/>
+      <c r="ALD1" s="2"/>
+      <c r="ALE1" s="2"/>
+      <c r="ALF1" s="2"/>
+      <c r="ALG1" s="2"/>
+      <c r="ALH1" s="2"/>
+      <c r="ALI1" s="2"/>
+      <c r="ALJ1" s="2"/>
+      <c r="ALK1" s="2"/>
+      <c r="ALL1" s="2"/>
+      <c r="ALM1" s="2"/>
+      <c r="ALN1" s="2"/>
+      <c r="ALO1" s="2"/>
+      <c r="ALP1" s="2"/>
+      <c r="ALQ1" s="2"/>
+      <c r="ALR1" s="2"/>
+      <c r="ALS1" s="2"/>
+      <c r="ALT1" s="2"/>
+      <c r="ALU1" s="2"/>
+      <c r="ALV1" s="2"/>
+      <c r="ALW1" s="2"/>
+      <c r="ALX1" s="2"/>
+      <c r="ALY1" s="2"/>
+      <c r="ALZ1" s="2"/>
+      <c r="AMA1" s="2"/>
+      <c r="AMB1" s="2"/>
+      <c r="AMC1" s="2"/>
+      <c r="AMD1" s="2"/>
+      <c r="AME1" s="2"/>
+      <c r="AMF1" s="2"/>
+      <c r="AMG1" s="2"/>
+      <c r="AMH1" s="2"/>
+      <c r="AMI1" s="2"/>
+      <c r="AMJ1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -1551,8 +3020,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>140</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -1580,13 +3049,389 @@
         <v>146</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>121</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1595,26 +3440,254 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="67.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="110.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="2" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B47"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="67.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="110.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="8.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>147</v>
+        <v>287</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1630,15 +3703,15 @@
     </row>
     <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>148</v>
+        <v>288</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>149</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>18</v>
@@ -1649,7 +3722,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>151</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1694,10 +3767,10 @@
     </row>
     <row r="11" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>152</v>
+        <v>292</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>153</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1713,20 +3786,20 @@
         <v>31</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>154</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>155</v>
+        <v>295</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>156</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>157</v>
+        <v>297</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>108</v>
@@ -1745,7 +3818,7 @@
         <v>45</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>158</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1785,15 +3858,15 @@
         <v>55</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>159</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>161</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1801,7 +3874,7 @@
         <v>57</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>162</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1809,7 +3882,7 @@
         <v>59</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>163</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1825,15 +3898,15 @@
         <v>63</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>164</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>165</v>
+        <v>305</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1841,15 +3914,15 @@
         <v>65</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>167</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>168</v>
+        <v>308</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>169</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,23 +3930,23 @@
         <v>67</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>170</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>171</v>
+        <v>311</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>172</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>173</v>
+        <v>313</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1881,7 +3954,7 @@
         <v>71</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>175</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1889,7 +3962,7 @@
         <v>73</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>176</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1905,15 +3978,15 @@
         <v>77</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>177</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>178</v>
+        <v>318</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>179</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1921,15 +3994,15 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>180</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>181</v>
+        <v>321</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>182</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1964,13 +4037,22 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1978,8 +4060,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1989,16 +4071,16 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="127.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="2" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="127.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="8.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>183</v>
+        <v>323</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2006,31 +4088,31 @@
     </row>
     <row r="2" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>184</v>
+        <v>324</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>185</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>186</v>
+        <v>326</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>187</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>188</v>
+        <v>328</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>137</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>189</v>
+        <v>329</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>123</v>
@@ -2038,31 +4120,31 @@
     </row>
     <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>191</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>193</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>194</v>
+        <v>334</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>195</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>196</v>
+        <v>336</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>132</v>
@@ -2070,24 +4152,24 @@
     </row>
     <row r="10" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>197</v>
+        <v>337</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>198</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>199</v>
+        <v>339</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>200</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/ULS_kailash/TestData/IjaraJSPaths.xlsx
+++ b/ULS_kailash/TestData/IjaraJSPaths.xlsx
@@ -5,15 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="CustomerAddressDetails" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="AssetDetailElements" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="CustomerDebt" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="addressdetails_WebElements" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="iJarah_CommonElements" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="DocumentDetailsElements" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="AssetDetailElements" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="CustomerDebt" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="addressdetails_WebElements" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="iJarah_CommonElements" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="429">
   <si>
     <t xml:space="preserve">Ijara_LoginFieldName</t>
   </si>
@@ -432,6 +433,300 @@
     <t xml:space="preserve">document.querySelector('ion-title[ng-reflect-color="dark"]')</t>
   </si>
   <si>
+    <t xml:space="preserve">Ijarah_DocmentDetailsFieldName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocumentDetails_Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-segment-button[id="seg13"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustomerName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Customer Name.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocumentName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="DOCUMENT_NAME.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RequiredAtStage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="REQUIRED_AT_STAGE.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocumentStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="DOCUMENT_STATUS.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MandatoryOptional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="MANDATORY_OR_OPTIONAL.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocumentCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="DOCUMENT_CATEGORY.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UploadDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-prime-date[ng-reflect-name="uploadDate"] button')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExpectedReceiptDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-prime-date[ng-reflect-name="expectedDateOfReceipt"] button')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeferralStage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Deferral Stage.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DefApprovedBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="DEF_APPROVED_BY.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChangeInNatureApprovedBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Change In Nature Approved By.T"]+Ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocumentForm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Document Form.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocumentQuality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Document Quality.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocumentReferenceNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="FORM.DOCUMENT_NUMBER.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocumentReceivedBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="DOCUMENT_APPROVED_BY.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationWhereReceived</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="DOCUMENT_DETAILS_LOCATION_WHER"]+Ion-select')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RackNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="FORM.RACK_NUMBER.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShelfNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="FORM.SHELF_NUMBER.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BoxNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="FORM.BOX_NUMBER.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DateOfExpiry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-prime-date[ng-reflect-name="expiryDate"] button')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LodgementAmount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Lodgement Amount.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Remarks.TOOLTIP"]+ion-textarea textarea')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaveIcon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('button[ng-reflect-icon="pi pi-save"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackIcon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('button[ng-reflect-icon="pi pi-arrow-left"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EditIcon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('th[ng-reflect-field="documentIdDesc"]').parentElement.parentElement.nextElementSibling.querySelectorAll('tr')[0].querySelectorAll('td')[0].querySelectorAll('button')[0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mailBox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('[name="mail-unread-outline"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mailInboxSearchBtn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('[ng-reflect-text="Search"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inboxSearchInput</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector("#pr_id_1 &gt; div.p-datatable-header.ng-star-inserted &gt; div &gt; span.p-input-icon-left.float-end.captionTemplatespan &gt; input")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inboxEntitleBtn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('[ng-reflect-text="Entitle"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nextBtn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('button[class^="btnNext ng-star-inserted"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TodayButton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('[ng-reflect-label="Today"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DateOfExpiryInput</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="Date Of Expiry.TOOLTIP"] p-calendar input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HelpButton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('[ng-reflect-name="information-circle-outline"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackButton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('[ng-reflect-icon="pi pi-arrow-left"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ViewDocumentButton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('[ng-reflect-json-name="Document_Form_01"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FileUploadButton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('[ng-reflect-name="fileUploaded"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocumentNameField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('[ng-reflect-field="documentIdDesc"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks_Verify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Remarks.TOOLTIP"]+ion-textarea')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UploadDate_verify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-prime-date[ng-reflect-name="uploadDate"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExpectedReceiptDate_verify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-prime-date[ng-reflect-name="expectedDateOfReceipt"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RackNo_Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="FORM.RACK_NUMBER.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelfNo_Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="FORM.SHELF_NUMBER.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boxNo_Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="FORM.BOX_NUMBER.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DateOfExpiry_Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-prime-date[ng-reflect-name="expiryDate"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lodgementAmount_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Lodgement Amount.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks_Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-radio-button[ng-reflect-title="SCR.STATUS"]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocumentRefNoDisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="FORM.DOCUMENT_NUMBER.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ijarah_AssetDetailsFieldName</t>
   </si>
   <si>
@@ -669,12 +964,6 @@
     <t xml:space="preserve">document.querySelector('digital-text-box[ng-reflect-title="Remarks"]')</t>
   </si>
   <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('digital-radio-button[ng-reflect-title="SCR.STATUS"]')</t>
-  </si>
-  <si>
     <t xml:space="preserve">AssetmanufactureDC</t>
   </si>
   <si>
@@ -753,33 +1042,15 @@
     <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="Remarks.TOOLTIP"]+ion-input')</t>
   </si>
   <si>
+    <t xml:space="preserve">BackButtonVerify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-col[size="12"]')</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ijarah_CustomerDebt</t>
   </si>
   <si>
-    <t xml:space="preserve">mailBox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('[name="mail-unread-outline"]')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mailInboxSearchBtn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('[ng-reflect-text="Search"]')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inboxSearchInput</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector("#pr_id_1 &gt; div.p-datatable-header.ng-star-inserted &gt; div &gt; span.p-input-icon-left.float-end.captionTemplatespan &gt; input")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inboxEntitleBtn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('[ng-reflect-text="Entitle"]')</t>
-  </si>
-  <si>
     <t xml:space="preserve">customerFinancialsTab</t>
   </si>
   <si>
@@ -1032,16 +1303,10 @@
     <t xml:space="preserve">save_button</t>
   </si>
   <si>
-    <t xml:space="preserve">document.querySelector('button[ng-reflect-icon="pi pi-save"]')</t>
-  </si>
-  <si>
     <t xml:space="preserve">back_button</t>
   </si>
   <si>
     <t xml:space="preserve">today_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector('[ng-reflect-label="Today"]')</t>
   </si>
   <si>
     <t xml:space="preserve">toast_message</t>
@@ -1059,7 +1324,7 @@
     <numFmt numFmtId="165" formatCode="[$$]#,##0.00;[RED]\-[$$]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$Rs.-4009]#,##0.00;[RED]\-[$Rs.-4009]#,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1110,24 +1375,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF6A3E3E"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1165,7 +1412,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1194,6 +1441,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1202,45 +1453,49 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="23" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="23" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="24" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1248,32 +1503,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -1282,8 +1533,10 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Result2" xfId="20"/>
     <cellStyle name="Result2 1" xfId="21"/>
-    <cellStyle name="Excel Built-in Normal 1" xfId="22"/>
-    <cellStyle name="Excel Built-in Normal" xfId="23"/>
+    <cellStyle name="Result2 2" xfId="22"/>
+    <cellStyle name="Excel Built-in Normal 1" xfId="23"/>
+    <cellStyle name="Excel Built-in Normal 2" xfId="24"/>
+    <cellStyle name="Excel Built-in Normal" xfId="25"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1291,7 +1544,7 @@
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF2A00FF"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
@@ -1304,7 +1557,7 @@
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF7F7F7F"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF6A3E3E"/>
+      <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -1361,9 +1614,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="144.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="8.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="144.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1454,8 +1707,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="43.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="51.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="43.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="51.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1962,21 +2215,449 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ54"/>
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.06"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="38.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="39.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -3005,655 +3686,435 @@
       <c r="AMJ1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>137</v>
+      <c r="A2" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>139</v>
+      <c r="A3" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>141</v>
+      <c r="A4" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>143</v>
+      <c r="A5" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>145</v>
+      <c r="A6" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>147</v>
+      <c r="A7" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>149</v>
+      <c r="A8" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>151</v>
+      <c r="A9" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>153</v>
+      <c r="A10" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>155</v>
+      <c r="A11" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>157</v>
+      <c r="A12" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>159</v>
+      <c r="A13" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>161</v>
+      <c r="A14" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>163</v>
+      <c r="A15" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>165</v>
+      <c r="A16" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>167</v>
+      <c r="A17" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>169</v>
+      <c r="A18" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>171</v>
+      <c r="A19" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>173</v>
+      <c r="A20" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>175</v>
+      <c r="A21" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>177</v>
+      <c r="A22" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>179</v>
+      <c r="A23" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>181</v>
+      <c r="A24" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>183</v>
+      <c r="A25" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>185</v>
+      <c r="A26" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>187</v>
+      <c r="A27" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>189</v>
+      <c r="A28" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>191</v>
+      <c r="A29" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>193</v>
+      <c r="A30" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>195</v>
+      <c r="A31" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>197</v>
+      <c r="A32" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>199</v>
+      <c r="A33" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>201</v>
+      <c r="A34" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>203</v>
+      <c r="A35" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>205</v>
+      <c r="A36" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>207</v>
+      <c r="A37" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>209</v>
+      <c r="A38" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>211</v>
+      <c r="A39" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>213</v>
+      <c r="A40" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>215</v>
+      <c r="A41" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>217</v>
+      <c r="A42" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>219</v>
+      <c r="A43" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>221</v>
+      <c r="A44" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>223</v>
+      <c r="A45" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>225</v>
+      <c r="A46" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>227</v>
+      <c r="A47" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>229</v>
+      <c r="A48" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>231</v>
+      <c r="A49" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>233</v>
+      <c r="A50" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>235</v>
+      <c r="A51" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>237</v>
+      <c r="A52" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>239</v>
+      <c r="A53" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>241</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.88"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>286</v>
+      <c r="A54" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3672,6 +4133,234 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="31.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="31.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>376</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
@@ -3680,14 +4369,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="67.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="110.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="8.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="67.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="110.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>287</v>
+        <v>377</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -3703,15 +4392,15 @@
     </row>
     <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>288</v>
+        <v>378</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>289</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>18</v>
@@ -3722,7 +4411,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>291</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3767,10 +4456,10 @@
     </row>
     <row r="11" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>292</v>
+        <v>382</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>293</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3786,20 +4475,20 @@
         <v>31</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>294</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>295</v>
+        <v>385</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>296</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>297</v>
+        <v>387</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>108</v>
@@ -3818,7 +4507,7 @@
         <v>45</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>298</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3858,15 +4547,15 @@
         <v>55</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>299</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>301</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3874,7 +4563,7 @@
         <v>57</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>302</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3882,7 +4571,7 @@
         <v>59</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>303</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3898,15 +4587,15 @@
         <v>63</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>304</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>305</v>
+        <v>395</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>306</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3914,15 +4603,15 @@
         <v>65</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>307</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>308</v>
+        <v>398</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>309</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3930,23 +4619,23 @@
         <v>67</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>310</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>311</v>
+        <v>401</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>312</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>313</v>
+        <v>403</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>314</v>
+        <v>404</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3954,7 +4643,7 @@
         <v>71</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>315</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3962,7 +4651,7 @@
         <v>73</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>316</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3978,15 +4667,15 @@
         <v>77</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>317</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>318</v>
+        <v>408</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>319</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3994,15 +4683,15 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>320</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>321</v>
+        <v>411</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>322</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4060,7 +4749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4073,14 +4762,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="127.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="8.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="127.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>323</v>
+        <v>413</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -4088,31 +4777,31 @@
     </row>
     <row r="2" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>324</v>
+        <v>414</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>325</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>327</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>328</v>
+        <v>418</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>329</v>
+        <v>419</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>123</v>
@@ -4120,31 +4809,31 @@
     </row>
     <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>331</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>332</v>
+        <v>422</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>333</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>334</v>
+        <v>424</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>335</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>336</v>
+        <v>425</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>132</v>
@@ -4152,18 +4841,18 @@
     </row>
     <row r="10" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>337</v>
+        <v>426</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>338</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>339</v>
+        <v>427</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>340</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/ULS_kailash/TestData/IjaraJSPaths.xlsx
+++ b/ULS_kailash/TestData/IjaraJSPaths.xlsx
@@ -5,28 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cloudconvert\server\files\tasks\62c31880-279b-482c-a902-d1b0ad32fbf4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cloudconvert\server\files\tasks\82fc137e-87a1-43b1-bcdb-ceb097330717\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43C0CBA9-9BFF-4819-A8E8-83D49C84F3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7D12B3B-3DF8-4167-80D6-C543D3F1831F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="7875"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="11520" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
     <sheet name="CustomerAddressDetails" sheetId="2" r:id="rId2"/>
     <sheet name="DocumentDetailsElements" sheetId="3" r:id="rId3"/>
-    <sheet name="AssetDetailElements" sheetId="4" r:id="rId4"/>
-    <sheet name="CustomerDebt" sheetId="5" r:id="rId5"/>
-    <sheet name="addressdetails_WebElements" sheetId="6" r:id="rId6"/>
-    <sheet name="iJarah_CommonElements" sheetId="7" r:id="rId7"/>
+    <sheet name="L1Approval" sheetId="4" r:id="rId4"/>
+    <sheet name="AssetDetailElements" sheetId="5" r:id="rId5"/>
+    <sheet name="CustomerDebt" sheetId="6" r:id="rId6"/>
+    <sheet name="addressdetails_WebElements" sheetId="7" r:id="rId7"/>
+    <sheet name="iJarah_CommonElements" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="460">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -725,6 +726,84 @@
   </si>
   <si>
     <t>document.querySelector('ion-label[ng-reflect-text="FORM.DOCUMENT_NUMBER.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>Ijarah_ApprovalFieldName</t>
+  </si>
+  <si>
+    <t>Edit_icon</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-pencil"]')</t>
+  </si>
+  <si>
+    <t>JSERecommendations</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-row[class="p-0 m-0 md hydrated"]+a')</t>
+  </si>
+  <si>
+    <t>AddButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Add"]')</t>
+  </si>
+  <si>
+    <t>SequenceNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Sequence Number.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>NoteSubcode</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="lconditionId"] ion-select')</t>
+  </si>
+  <si>
+    <t>NoteCode</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="ltemPlateId"] ion-select')</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Condition.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>fulfilled</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="fulfilledFlag"] ion-select')</t>
+  </si>
+  <si>
+    <t>ApprovalStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-title="Approval Status"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="SCR.REMARKS"] ion-textarea')</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="Date"] button')</t>
+  </si>
+  <si>
+    <t>Date_today</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-label="Today"]')</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>button[icon="pi pi-save"]</t>
   </si>
   <si>
     <t>Ijarah_AssetDetailsFieldName</t>
@@ -2832,6 +2911,140 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="54.125" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2845,7 +3058,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2853,314 +3066,314 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3173,138 +3386,138 @@
     </row>
     <row r="42" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -3317,7 +3530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD25"/>
   <sheetViews>
@@ -3332,7 +3545,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -3372,15 +3585,15 @@
     </row>
     <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>121</v>
@@ -3388,23 +3601,23 @@
     </row>
     <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>230</v>
@@ -3412,55 +3625,55 @@
     </row>
     <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>132</v>
@@ -3468,15 +3681,15 @@
     </row>
     <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>230</v>
@@ -3484,50 +3697,50 @@
     </row>
     <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -3540,7 +3753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD47"/>
   <sheetViews>
@@ -3555,7 +3768,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -3571,15 +3784,15 @@
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
@@ -3635,10 +3848,10 @@
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -3654,20 +3867,20 @@
         <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>108</v>
@@ -3686,7 +3899,7 @@
         <v>45</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -3726,15 +3939,15 @@
         <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -3742,7 +3955,7 @@
         <v>57</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -3750,7 +3963,7 @@
         <v>59</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -3766,15 +3979,15 @@
         <v>63</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -3782,15 +3995,15 @@
         <v>65</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -3798,23 +4011,23 @@
         <v>67</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -3822,7 +4035,7 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -3830,7 +4043,7 @@
         <v>73</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -3846,15 +4059,15 @@
         <v>77</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -3862,15 +4075,15 @@
         <v>79</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -3924,7 +4137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD11"/>
   <sheetViews>
@@ -3939,7 +4152,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -3947,23 +4160,23 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>189</v>
@@ -3971,7 +4184,7 @@
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>123</v>
@@ -3979,23 +4192,23 @@
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>183</v>
@@ -4003,7 +4216,7 @@
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>132</v>
@@ -4011,7 +4224,7 @@
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>199</v>
@@ -4019,10 +4232,10 @@
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
